--- a/DOC/単体テスト/EMSM_単体テストエビデンス_-雇用保険機能.xlsx
+++ b/DOC/単体テスト/EMSM_単体テストエビデンス_-雇用保険機能.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3432C-A8AE-46D0-B05B-6AB70E7BD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1285,6 +1285,64 @@
   <si>
     <t>No.12新規追加</t>
   </si>
+  <si>
+    <t>メールアカウントとパスワードを入力(e001@it-softtech.com)した0でログイン</t>
+  </si>
+  <si>
+    <t>メールアカウントとパスワードを入力(e001@it-softtech.com)してログインボダン押す</t>
+  </si>
+  <si>
+    <t>年度に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>雇用保険労働者負担料率‰
+に文字入力したの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">に文字入力したの場合
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雇用保険事業主負担料率‰に文字入力したの場合
+</t>
+  </si>
+  <si>
+    <t>雇用保険事業主負担料率‰に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>雇用保険料率‰に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>労災保険料率(全額事業主)‰に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>労働保険料率‰に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>一般拠出金料率(全額事業主)‰
+に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>一般拠出金料率(全額事業主)‰に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>対象年度に文字入力したの場合</t>
+  </si>
+  <si>
+    <t>雇用保険労働者負担料率‰に文字入力したの場合</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,6 +1587,11 @@
       <charset val="134"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1544,7 +1607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2029,6 +2092,13 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2045,7 +2115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="431">
+  <cellXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3284,6 +3354,12 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3417,6 +3493,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5762625" cy="5724525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9353550"/>
+          <a:ext cx="5762625" cy="5724525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3448,6 +3558,40 @@
         <a:xfrm>
           <a:off x="695325" y="1333500"/>
           <a:ext cx="9858375" cy="7086600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5067300" cy="5514975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9144000"/>
+          <a:ext cx="5067300" cy="5514975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3495,6 +3639,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5981700" cy="5676900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9525000"/>
+          <a:ext cx="5981700" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3526,6 +3704,40 @@
         <a:xfrm>
           <a:off x="638175" y="752475"/>
           <a:ext cx="10467975" cy="7277100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6153150" cy="5867400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8953500"/>
+          <a:ext cx="6153150" cy="5867400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3573,6 +3785,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6267450" cy="5857875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9334500"/>
+          <a:ext cx="6267450" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3604,6 +3850,40 @@
         <a:xfrm>
           <a:off x="714375" y="1343025"/>
           <a:ext cx="9553575" cy="7600950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6076950" cy="5781675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9715500"/>
+          <a:ext cx="6076950" cy="5781675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3651,6 +3931,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5886450" cy="5943600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9334500"/>
+          <a:ext cx="5886450" cy="5943600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3682,6 +3996,40 @@
         <a:xfrm>
           <a:off x="685800" y="1333500"/>
           <a:ext cx="10610850" cy="7324725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6762750" cy="5905500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9715500"/>
+          <a:ext cx="6762750" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3729,6 +4077,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6257925" cy="5848350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9334500"/>
+          <a:ext cx="6257925" cy="5848350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3760,6 +4142,40 @@
         <a:xfrm>
           <a:off x="685800" y="1343025"/>
           <a:ext cx="9344025" cy="7096125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6267450" cy="5791200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9334500"/>
+          <a:ext cx="6267450" cy="5791200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3960,7 +4376,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="14716125" cy="4943475"/>
+    <xdr:ext cx="12782550" cy="4286250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name=""/>
@@ -3978,7 +4394,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1381125" y="771525"/>
-          <a:ext cx="14716125" cy="4943475"/>
+          <a:ext cx="12782550" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4246,7 +4662,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8667750" cy="6715125"/>
+    <xdr:ext cx="8181975" cy="6353175"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -4264,7 +4680,41 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="762000"/>
-          <a:ext cx="8667750" cy="6715125"/>
+          <a:ext cx="8181975" cy="6353175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5876925" cy="5895975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8572500"/>
+          <a:ext cx="5876925" cy="5895975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4312,6 +4762,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5210175" cy="5524500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="9305925"/>
+          <a:ext cx="5210175" cy="5524500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4351,6 +4835,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5514975" cy="5419725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="9334500"/>
+          <a:ext cx="5514975" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4382,6 +4900,40 @@
         <a:xfrm>
           <a:off x="695325" y="1343025"/>
           <a:ext cx="9134475" cy="6800850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5695950" cy="5505450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8953500"/>
+          <a:ext cx="5695950" cy="5505450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5278,8 +5830,8 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A46">
+      <selection activeCell="T31" activeCellId="0" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5307,6 +5859,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5318,8 +5875,8 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A31">
+      <selection activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5347,6 +5904,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="252" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5358,8 +5920,8 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A22">
+      <selection activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5387,6 +5949,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5398,8 +5965,8 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5427,6 +5994,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5438,8 +6010,8 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A31">
+      <selection activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5467,6 +6039,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="432" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5478,8 +6055,8 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="V25" activeCellId="0" sqref="V25"/>
+    <sheetView workbookViewId="0" topLeftCell="A25">
+      <selection activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5492,6 +6069,11 @@
     <row r="3">
       <c r="B3" s="0" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5503,8 +6085,8 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A19">
+      <selection activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5532,6 +6114,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5543,8 +6130,8 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A7">
+      <selection activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5572,6 +6159,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5583,8 +6175,8 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A22">
+      <selection activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5612,6 +6204,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5623,8 +6220,8 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A34">
+      <selection activeCell="L47" activeCellId="0" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5652,6 +6249,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5796,8 +6398,8 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A22">
+      <selection activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5825,6 +6427,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +6444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="S29" activeCellId="0" sqref="S29"/>
+      <selection activeCell="T42" activeCellId="0" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5865,6 +6472,11 @@
     <row r="6">
       <c r="B6" s="0" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5877,7 +6489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A13">
-      <selection activeCell="E44" activeCellId="0" sqref="E44"/>
+      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5889,7 +6501,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -5907,14 +6519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -5931,7 +6543,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A46">
+    <sheetView workbookViewId="0" topLeftCell="A61">
       <selection activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -5966,7 +6578,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A49">
       <selection activeCell="Y41" activeCellId="0" sqref="Y41"/>
     </sheetView>
   </sheetViews>
@@ -5996,7 +6608,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A7" tabSelected="1">
+    <sheetView workbookViewId="0" topLeftCell="A10">
       <selection activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -6026,8 +6638,8 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A10" tabSelected="1">
+      <selection activeCell="Q34" activeCellId="0" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6040,6 +6652,11 @@
     <row r="3">
       <c r="B3" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6051,8 +6668,8 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView workbookViewId="0" topLeftCell="A52">
+      <selection activeCell="N88" activeCellId="0" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6082,6 +6699,21 @@
         <v>129</v>
       </c>
     </row>
+    <row r="47">
+      <c r="B47" s="432" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="L56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="J61" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DOC/単体テスト/EMSM_単体テストエビデンス_-雇用保険機能.xlsx
+++ b/DOC/単体テスト/EMSM_単体テストエビデンス_-雇用保険機能.xlsx
@@ -1307,15 +1307,15 @@
     <t xml:space="preserve">    　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
   </si>
   <si>
-    <t>雇用保険労働者負担料率‰
+    <t>雇用保険労働者負担料率‰
 に文字入力したの場合</t>
   </si>
   <si>
-    <t xml:space="preserve">に文字入力したの場合
+    <t xml:space="preserve">に文字入力したの場合
 </t>
   </si>
   <si>
-    <t xml:space="preserve">雇用保険事業主負担料率‰に文字入力したの場合
+    <t xml:space="preserve">雇用保険事業主負担料率‰に文字入力したの場合
 </t>
   </si>
   <si>
@@ -1331,7 +1331,7 @@
     <t>労働保険料率‰に文字入力したの場合</t>
   </si>
   <si>
-    <t>一般拠出金料率(全額事業主)‰
+    <t>一般拠出金料率(全額事業主)‰
 に文字入力したの場合</t>
   </si>
   <si>
@@ -6488,8 +6488,8 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A13">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6543,7 +6543,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A61">
+    <sheetView workbookViewId="0" topLeftCell="A67">
       <selection activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -6638,8 +6638,8 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10" tabSelected="1">
-      <selection activeCell="Q34" activeCellId="0" sqref="Q34"/>
+    <sheetView workbookViewId="0" topLeftCell="A22" tabSelected="1">
+      <selection activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6668,7 +6668,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A52">
+    <sheetView workbookViewId="0" topLeftCell="A46">
       <selection activeCell="N88" activeCellId="0" sqref="N88"/>
     </sheetView>
   </sheetViews>
